--- a/exercises/1_1_Ages_query.xlsx
+++ b/exercises/1_1_Ages_query.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamandsolihullccg-my.sharepoint.com/personal/chris_mainey_birminghamandsolihullccg_nhs_uk/Documents/Documents/statistics_training/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{D81C6CED-DDA5-47BD-B232-025C09B0C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA36CDC-2244-4729-8B0B-28A21631960D}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{D81C6CED-DDA5-47BD-B232-025C09B0C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FEF57C-E370-41E7-A08D-4D40867A0D92}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CF9E17F-A9E4-437B-9990-C1527540FA86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{0CF9E17F-A9E4-437B-9990-C1527540FA86}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Calculation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Calculation!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Calculation!$A$2:$A$206</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Calculation!$J$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Calculation!$J$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Calculation!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Calculation!$A$2:$A$206</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Calculation!$J$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Raw!$A$2:$A$206</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Raw!$A$2:$A$206</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Calculation!$A$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Calculation!$A$2:$A$206</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Ages</t>
   </si>
@@ -97,6 +116,12 @@
   <si>
     <t>Histogram</t>
   </si>
+  <si>
+    <t>bins</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +153,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF393E47"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,19 +197,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,12 +229,388 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Raw!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E59F-4445-8421-C9BDB46A5756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1408546751"/>
+        <c:axId val="1418767471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1408546751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418767471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1418767471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408546751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{37D2C0A1-C1F5-455F-BB7A-EB6B63BAFEB9}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -240,7 +648,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-721B-4C08-912C-11221D4E91C1}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Ages (x)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -306,6 +714,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -814,7 +1302,1137 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8392639-C03A-1EE2-D20B-78BD2AD37A81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8442325" y="1793875"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B5C34B-5931-2A3D-E168-5AD0DF6350CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -863,8 +2481,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6105525" y="2452687"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6105525" y="2376487"/>
+              <a:ext cx="4746625" cy="2647950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1216,56 +2834,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ACADCA-5BDA-4DD1-91DA-857D58A32294}">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>75</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C13">FREQUENCY(A2:A206,B2:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>81</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1274,9 +2911,15 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8">
+        <v>33</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1285,1012 +2928,1063 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>72</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>86</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>72</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>69</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>78</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>68</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>91</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>91</v>
       </c>
@@ -2301,6 +3995,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2308,18 +4003,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4DF89A-F44B-4B53-86F3-93BC1A28E40F}">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2339,16 +4034,16 @@
       <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>75</v>
       </c>
@@ -2370,26 +4065,26 @@
         <f>F2/$F$206</f>
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>81</v>
       </c>
@@ -2436,7 +4131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59</v>
       </c>
@@ -2477,7 +4172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>70</v>
       </c>
@@ -2500,7 +4195,7 @@
         <v>1.9512195121951219E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>64</v>
       </c>
@@ -2523,7 +4218,7 @@
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>67</v>
       </c>
@@ -2546,7 +4241,7 @@
         <v>2.9268292682926831E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>66</v>
       </c>
@@ -2569,7 +4264,7 @@
         <v>3.4146341463414637E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>54</v>
       </c>
@@ -2595,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>68</v>
       </c>
@@ -2618,7 +4313,7 @@
         <v>4.3902439024390241E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>72</v>
       </c>
@@ -2641,7 +4336,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
@@ -2664,7 +4359,7 @@
         <v>5.3658536585365853E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>66</v>
       </c>
@@ -2687,7 +4382,7 @@
         <v>5.8536585365853662E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>70</v>
       </c>
@@ -2710,7 +4405,7 @@
         <v>6.3414634146341464E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>76</v>
       </c>
@@ -2733,7 +4428,7 @@
         <v>6.8292682926829273E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75</v>
       </c>
@@ -2756,7 +4451,7 @@
         <v>7.3170731707317069E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>52</v>
       </c>
@@ -2779,7 +4474,7 @@
         <v>7.8048780487804878E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>59</v>
       </c>
@@ -2802,7 +4497,7 @@
         <v>8.2926829268292687E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>52</v>
       </c>
@@ -2825,7 +4520,7 @@
         <v>8.7804878048780483E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>86</v>
       </c>
@@ -2848,7 +4543,7 @@
         <v>9.2682926829268292E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>56</v>
       </c>
@@ -2871,7 +4566,7 @@
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>51</v>
       </c>
@@ -2894,7 +4589,7 @@
         <v>0.1024390243902439</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>59</v>
       </c>
@@ -2917,7 +4612,7 @@
         <v>0.10731707317073171</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>72</v>
       </c>
@@ -2940,7 +4635,7 @@
         <v>0.11219512195121951</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>61</v>
       </c>
@@ -2963,7 +4658,7 @@
         <v>0.11707317073170732</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53</v>
       </c>
@@ -2986,7 +4681,7 @@
         <v>0.12195121951219512</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>72</v>
       </c>
@@ -3009,7 +4704,7 @@
         <v>0.12682926829268293</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>75</v>
       </c>
@@ -3032,7 +4727,7 @@
         <v>0.13170731707317074</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>69</v>
       </c>
@@ -3055,7 +4750,7 @@
         <v>0.13658536585365855</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>64</v>
       </c>
@@ -3078,7 +4773,7 @@
         <v>0.14146341463414633</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>55</v>
       </c>
@@ -3101,7 +4796,7 @@
         <v>0.14634146341463414</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>74</v>
       </c>
@@ -3124,7 +4819,7 @@
         <v>0.15121951219512195</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>54</v>
       </c>
@@ -3147,7 +4842,7 @@
         <v>0.15609756097560976</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>61</v>
       </c>
@@ -3170,7 +4865,7 @@
         <v>0.16097560975609757</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>74</v>
       </c>
@@ -3193,7 +4888,7 @@
         <v>0.16585365853658537</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>86</v>
       </c>
@@ -3216,7 +4911,7 @@
         <v>0.17073170731707318</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>53</v>
       </c>
@@ -3239,7 +4934,7 @@
         <v>0.17560975609756097</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>68</v>
       </c>
@@ -3262,7 +4957,7 @@
         <v>0.18048780487804877</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>69</v>
       </c>
@@ -3285,7 +4980,7 @@
         <v>0.18536585365853658</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>76</v>
       </c>
@@ -3308,7 +5003,7 @@
         <v>0.19024390243902439</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>58</v>
       </c>
@@ -3331,7 +5026,7 @@
         <v>0.1951219512195122</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>59</v>
       </c>
@@ -3354,7 +5049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>79</v>
       </c>
@@ -3377,7 +5072,7 @@
         <v>0.20487804878048779</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>59</v>
       </c>
@@ -3400,7 +5095,7 @@
         <v>0.2097560975609756</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>69</v>
       </c>
@@ -3423,7 +5118,7 @@
         <v>0.21463414634146341</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>91</v>
       </c>
@@ -3446,7 +5141,7 @@
         <v>0.21951219512195122</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>55</v>
       </c>
@@ -3469,7 +5164,7 @@
         <v>0.22439024390243903</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>59</v>
       </c>
@@ -3499,7 +5194,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>68</v>
       </c>
@@ -3526,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>58</v>
       </c>
@@ -3553,7 +5248,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>70</v>
       </c>
@@ -3577,7 +5272,7 @@
       </c>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>68</v>
       </c>
@@ -3601,7 +5296,7 @@
       </c>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>60</v>
       </c>
@@ -3624,7 +5319,7 @@
         <v>0.25365853658536586</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>89</v>
       </c>
@@ -3647,7 +5342,7 @@
         <v>0.25853658536585367</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3670,7 +5365,7 @@
         <v>0.26341463414634148</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>85</v>
       </c>
@@ -3693,7 +5388,7 @@
         <v>0.26829268292682928</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>76</v>
       </c>
@@ -3716,7 +5411,7 @@
         <v>0.27317073170731709</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3739,7 +5434,7 @@
         <v>0.2780487804878049</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3762,7 +5457,7 @@
         <v>0.28292682926829266</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>84</v>
       </c>
@@ -3785,7 +5480,7 @@
         <v>0.28780487804878047</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>91</v>
       </c>
@@ -3808,7 +5503,7 @@
         <v>0.29268292682926828</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>90</v>
       </c>
@@ -3831,7 +5526,7 @@
         <v>0.29756097560975608</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>87</v>
       </c>
@@ -3854,7 +5549,7 @@
         <v>0.30243902439024389</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>90</v>
       </c>
@@ -3877,7 +5572,7 @@
         <v>0.3073170731707317</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>85</v>
       </c>
@@ -3900,7 +5595,7 @@
         <v>0.31219512195121951</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>54</v>
       </c>
@@ -3923,7 +5618,7 @@
         <v>0.31707317073170732</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>76</v>
       </c>
@@ -3946,7 +5641,7 @@
         <v>0.32195121951219513</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>91</v>
       </c>
@@ -3969,7 +5664,7 @@
         <v>0.32682926829268294</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>79</v>
       </c>
@@ -3992,7 +5687,7 @@
         <v>0.33170731707317075</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>53</v>
       </c>
@@ -4015,7 +5710,7 @@
         <v>0.33658536585365856</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>62</v>
       </c>
@@ -4038,7 +5733,7 @@
         <v>0.34146341463414637</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4061,7 +5756,7 @@
         <v>0.34634146341463412</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>69</v>
       </c>
@@ -4084,7 +5779,7 @@
         <v>0.35121951219512193</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>75</v>
       </c>
@@ -4107,7 +5802,7 @@
         <v>0.35609756097560974</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>76</v>
       </c>
@@ -4130,7 +5825,7 @@
         <v>0.36097560975609755</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4153,7 +5848,7 @@
         <v>0.36585365853658536</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4176,7 +5871,7 @@
         <v>0.37073170731707317</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>63</v>
       </c>
@@ -4199,7 +5894,7 @@
         <v>0.37560975609756098</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>85</v>
       </c>
@@ -4222,7 +5917,7 @@
         <v>0.38048780487804879</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>76</v>
       </c>
@@ -4245,7 +5940,7 @@
         <v>0.38536585365853659</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>85</v>
       </c>
@@ -4268,7 +5963,7 @@
         <v>0.3902439024390244</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>67</v>
       </c>
@@ -4291,7 +5986,7 @@
         <v>0.39512195121951221</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>63</v>
       </c>
@@ -4314,7 +6009,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>91</v>
       </c>
@@ -4337,7 +6032,7 @@
         <v>0.40487804878048783</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>63</v>
       </c>
@@ -4360,7 +6055,7 @@
         <v>0.40975609756097559</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>64</v>
       </c>
@@ -4383,7 +6078,7 @@
         <v>0.41463414634146339</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>69</v>
       </c>
@@ -4406,7 +6101,7 @@
         <v>0.4195121951219512</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>63</v>
       </c>
@@ -4429,7 +6124,7 @@
         <v>0.42439024390243901</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>60</v>
       </c>
@@ -4452,7 +6147,7 @@
         <v>0.42926829268292682</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>57</v>
       </c>
@@ -4475,7 +6170,7 @@
         <v>0.43414634146341463</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>83</v>
       </c>
@@ -4498,7 +6193,7 @@
         <v>0.43902439024390244</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>69</v>
       </c>
@@ -4521,7 +6216,7 @@
         <v>0.44390243902439025</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>60</v>
       </c>
@@ -4544,7 +6239,7 @@
         <v>0.44878048780487806</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>58</v>
       </c>
@@ -4567,7 +6262,7 @@
         <v>0.45365853658536587</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>70</v>
       </c>
@@ -4590,7 +6285,7 @@
         <v>0.45853658536585368</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>59</v>
       </c>
@@ -4613,7 +6308,7 @@
         <v>0.46341463414634149</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>85</v>
       </c>
@@ -4636,7 +6331,7 @@
         <v>0.4682926829268293</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>68</v>
       </c>
@@ -4659,7 +6354,7 @@
         <v>0.47317073170731705</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>85</v>
       </c>
@@ -4682,7 +6377,7 @@
         <v>0.47804878048780486</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>56</v>
       </c>
@@ -4705,7 +6400,7 @@
         <v>0.48292682926829267</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>79</v>
       </c>
@@ -4728,7 +6423,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>85</v>
       </c>
@@ -4751,7 +6446,7 @@
         <v>0.49268292682926829</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>76</v>
       </c>
@@ -4781,7 +6476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>76</v>
       </c>
@@ -4808,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>73</v>
       </c>
@@ -4835,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>60</v>
       </c>
@@ -4858,7 +6553,7 @@
         <v>0.51219512195121952</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>87</v>
       </c>
@@ -4881,7 +6576,7 @@
         <v>0.51707317073170733</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>57</v>
       </c>
@@ -4904,7 +6599,7 @@
         <v>0.52195121951219514</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>67</v>
       </c>
@@ -4927,7 +6622,7 @@
         <v>0.52682926829268295</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>72</v>
       </c>
@@ -4950,7 +6645,7 @@
         <v>0.53170731707317076</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>92</v>
       </c>
@@ -4973,7 +6668,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>58</v>
       </c>
@@ -4996,7 +6691,7 @@
         <v>0.54146341463414638</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>55</v>
       </c>
@@ -5019,7 +6714,7 @@
         <v>0.54634146341463419</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>54</v>
       </c>
@@ -5042,7 +6737,7 @@
         <v>0.551219512195122</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>71</v>
       </c>
@@ -5065,7 +6760,7 @@
         <v>0.55609756097560981</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>90</v>
       </c>
@@ -5088,7 +6783,7 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>55</v>
       </c>
@@ -5111,7 +6806,7 @@
         <v>0.56585365853658531</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>58</v>
       </c>
@@ -5134,7 +6829,7 @@
         <v>0.57073170731707312</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>59</v>
       </c>
@@ -5157,7 +6852,7 @@
         <v>0.57560975609756093</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>63</v>
       </c>
@@ -5180,7 +6875,7 @@
         <v>0.58048780487804874</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>77</v>
       </c>
@@ -5203,7 +6898,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>85</v>
       </c>
@@ -5226,7 +6921,7 @@
         <v>0.59024390243902436</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>77</v>
       </c>
@@ -5249,7 +6944,7 @@
         <v>0.59512195121951217</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>53</v>
       </c>
@@ -5272,7 +6967,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>66</v>
       </c>
@@ -5295,7 +6990,7 @@
         <v>0.60487804878048779</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>73</v>
       </c>
@@ -5318,7 +7013,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>53</v>
       </c>
@@ -5341,7 +7036,7 @@
         <v>0.61463414634146341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>79</v>
       </c>
@@ -5364,7 +7059,7 @@
         <v>0.61951219512195121</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>70</v>
       </c>
@@ -5387,7 +7082,7 @@
         <v>0.62439024390243902</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>70</v>
       </c>
@@ -5410,7 +7105,7 @@
         <v>0.62926829268292683</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>77</v>
       </c>
@@ -5433,7 +7128,7 @@
         <v>0.63414634146341464</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>56</v>
       </c>
@@ -5456,7 +7151,7 @@
         <v>0.63902439024390245</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>65</v>
       </c>
@@ -5479,7 +7174,7 @@
         <v>0.64390243902439026</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>85</v>
       </c>
@@ -5502,7 +7197,7 @@
         <v>0.64878048780487807</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>64</v>
       </c>
@@ -5525,7 +7220,7 @@
         <v>0.65365853658536588</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>74</v>
       </c>
@@ -5548,7 +7243,7 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>66</v>
       </c>
@@ -5571,7 +7266,7 @@
         <v>0.6634146341463415</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>74</v>
       </c>
@@ -5594,7 +7289,7 @@
         <v>0.66829268292682931</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>59</v>
       </c>
@@ -5617,7 +7312,7 @@
         <v>0.67317073170731712</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>68</v>
       </c>
@@ -5640,7 +7335,7 @@
         <v>0.67804878048780493</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>79</v>
       </c>
@@ -5663,7 +7358,7 @@
         <v>0.68292682926829273</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>66</v>
       </c>
@@ -5686,7 +7381,7 @@
         <v>0.68780487804878043</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>56</v>
       </c>
@@ -5709,7 +7404,7 @@
         <v>0.69268292682926824</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>68</v>
       </c>
@@ -5732,7 +7427,7 @@
         <v>0.69756097560975605</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>63</v>
       </c>
@@ -5755,7 +7450,7 @@
         <v>0.70243902439024386</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>66</v>
       </c>
@@ -5778,7 +7473,7 @@
         <v>0.70731707317073167</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>66</v>
       </c>
@@ -5801,7 +7496,7 @@
         <v>0.71219512195121948</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>68</v>
       </c>
@@ -5824,7 +7519,7 @@
         <v>0.71707317073170729</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>70</v>
       </c>
@@ -5847,7 +7542,7 @@
         <v>0.7219512195121951</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>64</v>
       </c>
@@ -5870,7 +7565,7 @@
         <v>0.72682926829268291</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>72</v>
       </c>
@@ -5893,7 +7588,7 @@
         <v>0.73170731707317072</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>56</v>
       </c>
@@ -5916,7 +7611,7 @@
         <v>0.73658536585365852</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>83</v>
       </c>
@@ -5939,7 +7634,7 @@
         <v>0.74146341463414633</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>53</v>
       </c>
@@ -5969,7 +7664,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>69</v>
       </c>
@@ -5996,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>67</v>
       </c>
@@ -6023,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>77</v>
       </c>
@@ -6046,7 +7741,7 @@
         <v>0.76097560975609757</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>68</v>
       </c>
@@ -6069,7 +7764,7 @@
         <v>0.76585365853658538</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>63</v>
       </c>
@@ -6092,7 +7787,7 @@
         <v>0.77073170731707319</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>73</v>
       </c>
@@ -6115,7 +7810,7 @@
         <v>0.775609756097561</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>57</v>
       </c>
@@ -6138,7 +7833,7 @@
         <v>0.78048780487804881</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>86</v>
       </c>
@@ -6161,7 +7856,7 @@
         <v>0.78536585365853662</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>52</v>
       </c>
@@ -6184,7 +7879,7 @@
         <v>0.79024390243902443</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>75</v>
       </c>
@@ -6207,7 +7902,7 @@
         <v>0.79512195121951224</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>78</v>
       </c>
@@ -6230,7 +7925,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>76</v>
       </c>
@@ -6253,7 +7948,7 @@
         <v>0.80487804878048785</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>61</v>
       </c>
@@ -6276,7 +7971,7 @@
         <v>0.80975609756097566</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>71</v>
       </c>
@@ -6299,7 +7994,7 @@
         <v>0.81463414634146336</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>77</v>
       </c>
@@ -6322,7 +8017,7 @@
         <v>0.81951219512195117</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>64</v>
       </c>
@@ -6345,7 +8040,7 @@
         <v>0.82439024390243898</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>62</v>
       </c>
@@ -6368,7 +8063,7 @@
         <v>0.82926829268292679</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>77</v>
       </c>
@@ -6391,7 +8086,7 @@
         <v>0.8341463414634146</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>69</v>
       </c>
@@ -6414,7 +8109,7 @@
         <v>0.83902439024390241</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>69</v>
       </c>
@@ -6437,7 +8132,7 @@
         <v>0.84390243902439022</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>66</v>
       </c>
@@ -6460,7 +8155,7 @@
         <v>0.84878048780487803</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>85</v>
       </c>
@@ -6483,7 +8178,7 @@
         <v>0.85365853658536583</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>65</v>
       </c>
@@ -6506,7 +8201,7 @@
         <v>0.85853658536585364</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>61</v>
       </c>
@@ -6529,7 +8224,7 @@
         <v>0.86341463414634145</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>72</v>
       </c>
@@ -6552,7 +8247,7 @@
         <v>0.86829268292682926</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>69</v>
       </c>
@@ -6575,7 +8270,7 @@
         <v>0.87317073170731707</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>73</v>
       </c>
@@ -6598,7 +8293,7 @@
         <v>0.87804878048780488</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>53</v>
       </c>
@@ -6621,7 +8316,7 @@
         <v>0.88292682926829269</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>77</v>
       </c>
@@ -6644,7 +8339,7 @@
         <v>0.8878048780487805</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>54</v>
       </c>
@@ -6667,7 +8362,7 @@
         <v>0.89268292682926831</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>56</v>
       </c>
@@ -6690,7 +8385,7 @@
         <v>0.89756097560975612</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>72</v>
       </c>
@@ -6713,7 +8408,7 @@
         <v>0.90243902439024393</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>70</v>
       </c>
@@ -6736,7 +8431,7 @@
         <v>0.90731707317073174</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>69</v>
       </c>
@@ -6759,7 +8454,7 @@
         <v>0.91219512195121955</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>67</v>
       </c>
@@ -6782,7 +8477,7 @@
         <v>0.91707317073170735</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>62</v>
       </c>
@@ -6805,7 +8500,7 @@
         <v>0.92195121951219516</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>78</v>
       </c>
@@ -6828,7 +8523,7 @@
         <v>0.92682926829268297</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>58</v>
       </c>
@@ -6851,7 +8546,7 @@
         <v>0.93170731707317078</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>54</v>
       </c>
@@ -6874,7 +8569,7 @@
         <v>0.93658536585365859</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>69</v>
       </c>
@@ -6897,7 +8592,7 @@
         <v>0.94146341463414629</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>76</v>
       </c>
@@ -6920,7 +8615,7 @@
         <v>0.9463414634146341</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>86</v>
       </c>
@@ -6943,7 +8638,7 @@
         <v>0.95121951219512191</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>59</v>
       </c>
@@ -6966,7 +8661,7 @@
         <v>0.95609756097560972</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>80</v>
       </c>
@@ -6989,7 +8684,7 @@
         <v>0.96097560975609753</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>84</v>
       </c>
@@ -7012,7 +8707,7 @@
         <v>0.96585365853658534</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>56</v>
       </c>
@@ -7035,7 +8730,7 @@
         <v>0.97073170731707314</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>78</v>
       </c>
@@ -7058,7 +8753,7 @@
         <v>0.97560975609756095</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>75</v>
       </c>
@@ -7081,7 +8776,7 @@
         <v>0.98048780487804876</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>57</v>
       </c>
@@ -7104,7 +8799,7 @@
         <v>0.98536585365853657</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>68</v>
       </c>
@@ -7127,7 +8822,7 @@
         <v>0.99024390243902438</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>91</v>
       </c>
@@ -7150,7 +8845,7 @@
         <v>0.99512195121951219</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>91</v>
       </c>
